--- a/main/data/median_sorted_arrays.xlsx
+++ b/main/data/median_sorted_arrays.xlsx
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19.73605155944824</v>
+        <v>15.94901084899902</v>
       </c>
       <c r="D2" t="n">
-        <v>1152</v>
+        <v>123</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19.81186866760254</v>
+        <v>16.72792434692383</v>
       </c>
       <c r="D3" t="n">
-        <v>608</v>
+        <v>175</v>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
@@ -504,10 +504,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>24.29533004760742</v>
+        <v>16.00790023803711</v>
       </c>
       <c r="D4" t="n">
-        <v>608</v>
+        <v>175</v>
       </c>
       <c r="E4" t="inlineStr"/>
     </row>
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20.36404609680176</v>
+        <v>15.96188545227051</v>
       </c>
       <c r="D5" t="n">
-        <v>656</v>
+        <v>123</v>
       </c>
       <c r="E5" t="inlineStr"/>
     </row>
@@ -538,10 +538,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>18.69106292724609</v>
+        <v>16.29495620727539</v>
       </c>
       <c r="D6" t="n">
-        <v>1184</v>
+        <v>176</v>
       </c>
       <c r="E6" t="inlineStr"/>
     </row>

--- a/main/data/median_sorted_arrays.xlsx
+++ b/main/data/median_sorted_arrays.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Memory Usage (mb)</t>
+          <t>Memory Usage (bytes)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15.94901084899902</v>
+        <v>16.08705520629883</v>
       </c>
       <c r="D2" t="n">
         <v>123</v>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16.72792434692383</v>
+        <v>15.69008827209473</v>
       </c>
       <c r="D3" t="n">
         <v>175</v>
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16.00790023803711</v>
+        <v>16.47377014160156</v>
       </c>
       <c r="D4" t="n">
         <v>175</v>
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15.96188545227051</v>
+        <v>17.90094375610352</v>
       </c>
       <c r="D5" t="n">
         <v>123</v>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16.29495620727539</v>
+        <v>17.98701286315918</v>
       </c>
       <c r="D6" t="n">
         <v>176</v>

--- a/main/data/median_sorted_arrays.xlsx
+++ b/main/data/median_sorted_arrays.xlsx
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16.08705520629883</v>
+        <v>21.6679573059082</v>
       </c>
       <c r="D2" t="n">
         <v>123</v>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15.69008827209473</v>
+        <v>20.98608016967773</v>
       </c>
       <c r="D3" t="n">
         <v>175</v>
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16.47377014160156</v>
+        <v>20.47920227050781</v>
       </c>
       <c r="D4" t="n">
         <v>175</v>
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17.90094375610352</v>
+        <v>20.65205574035645</v>
       </c>
       <c r="D5" t="n">
         <v>123</v>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17.98701286315918</v>
+        <v>23.3771800994873</v>
       </c>
       <c r="D6" t="n">
         <v>176</v>
